--- a/color-test.xlsx
+++ b/color-test.xlsx
@@ -413,87 +413,90 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1234-더블 백스트랩 오프숄더 브라탑-블랙</v>
-      </c>
-      <c r="B2">
-        <v>1300</v>
+        <v>1234-더블 백스트랩 오프숄더 브라탑-블랙,</v>
+      </c>
+      <c r="B2" t="str">
+        <v>1300,</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>1234-더블 백스트랩 오프숄더 브라탑-스킨</v>
-      </c>
-      <c r="B3">
-        <v>1300</v>
+        <v>1234-더블 백스트랩 오프숄더 브라탑-스킨,</v>
+      </c>
+      <c r="B3" t="str">
+        <v>1300,</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>1235-소프트 프릴 크롭 브라탑-블랙</v>
-      </c>
-      <c r="B4">
-        <v>2900</v>
+        <v>1235-소프트 프릴 크롭 브라탑-블랙,</v>
+      </c>
+      <c r="B4" t="str">
+        <v>2900,</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>1235-소프트 프릴 크롭 브라탑-화이트</v>
-      </c>
-      <c r="B5">
-        <v>2900</v>
+        <v>1235-소프트 프릴 크롭 브라탑-화이트,</v>
+      </c>
+      <c r="B5" t="str">
+        <v>2900,</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2346-헤브 백리스 스트랩 브라렛-블랙</v>
-      </c>
-      <c r="B6">
-        <v>3500</v>
+        <v>2346-헤브 백리스 스트랩 브라렛-블랙,</v>
+      </c>
+      <c r="B6" t="str">
+        <v>3500,</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2346-헤브 백리스 스트랩 브라렛-화이트</v>
-      </c>
-      <c r="B7">
-        <v>3500</v>
+        <v>2346-헤브 백리스 스트랩 브라렛-화이트,</v>
+      </c>
+      <c r="B7" t="str">
+        <v>3500,</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>734-비비 백리스 나시 크롭탑-블랙</v>
-      </c>
-      <c r="B8">
-        <v>2800</v>
+        <v>734-비비 백리스 나시 크롭탑-블랙,</v>
+      </c>
+      <c r="B8" t="str">
+        <v>2800,</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>734-비비 백리스 나시 크롭탑-화이트</v>
-      </c>
-      <c r="B9">
-        <v>2800</v>
+        <v>734-비비 백리스 나시 크롭탑-화이트,</v>
+      </c>
+      <c r="B9" t="str">
+        <v>2800,</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>3344-원썸 홀터넥 브라탑-블랙</v>
-      </c>
-      <c r="B10">
-        <v>2600</v>
+        <v>3344-원썸 홀터넥 브라탑-블랙,</v>
+      </c>
+      <c r="B10" t="str">
+        <v>2600,</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>3344-원썸 홀터넥 브라탑-화이트</v>
-      </c>
-      <c r="B11">
-        <v>2600</v>
+        <v>3344-원썸 홀터넥 브라탑-화이트,</v>
+      </c>
+      <c r="B11" t="str">
+        <v>2600,</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>undefined-undefined-</v>
+        <v>undefined-undefined-,</v>
+      </c>
+      <c r="B12" t="str">
+        <v>undefined,</v>
       </c>
     </row>
   </sheetData>
